--- a/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
+++ b/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1014764.96084211</v>
+        <v>1014764.960842113</v>
       </c>
       <c r="D2">
-        <v>418589.624461565</v>
+        <v>418589.6244615653</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -447,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>642998.737414316</v>
+        <v>642998.7374143164</v>
       </c>
       <c r="D3">
-        <v>215223.638082962</v>
+        <v>215223.6380829624</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>729590.390147741</v>
+        <v>729590.3901477411</v>
       </c>
       <c r="D4">
-        <v>407859.733851065</v>
+        <v>407859.7338510645</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -475,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>164905.522897753</v>
+        <v>164905.5228977527</v>
       </c>
       <c r="D5">
-        <v>67276.0758529747</v>
+        <v>67276.07585297468</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>156688.53815352</v>
+        <v>156688.5381535199</v>
       </c>
       <c r="D6">
-        <v>120326.827538516</v>
+        <v>120326.8275385159</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -503,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>136977.672565956</v>
+        <v>136977.6725659556</v>
       </c>
       <c r="D7">
-        <v>11946.1159025778</v>
+        <v>11946.11590257782</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -520,7 +520,7 @@
         <v>29463.7085288836</v>
       </c>
       <c r="D8">
-        <v>3428.34337087247</v>
+        <v>3428.343370872475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -531,10 +531,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>21480.7055359862</v>
+        <v>21480.70553598624</v>
       </c>
       <c r="D9">
-        <v>3472.08910207416</v>
+        <v>3472.089102074165</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.35401807906929e+21</v>
+        <v>5.354018078980132e+21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4.0853193164043e+21</v>
+        <v>4.085319316333854e+21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.20933202659467e+21</v>
+        <v>3.209332026553231e+21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.60449677768489e+21</v>
+        <v>2.604496777674578e+21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.18688149652793e+21</v>
+        <v>2.186881496546793e+21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.89853434187688e+21</v>
+        <v>1.898534341921169e+21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.69944181498222e+21</v>
+        <v>1.699441815047732e+21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.56197614685982e+21</v>
+        <v>1.561976146942508e+21</v>
       </c>
     </row>
   </sheetData>

--- a/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
+++ b/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1014764.960842113</v>
+        <v>1014764.96084211</v>
       </c>
       <c r="D2">
-        <v>418589.6244615653</v>
+        <v>418589.624461565</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -447,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>642998.7374143164</v>
+        <v>642998.737414316</v>
       </c>
       <c r="D3">
-        <v>215223.6380829624</v>
+        <v>215223.638082962</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>729590.3901477411</v>
+        <v>729590.390147741</v>
       </c>
       <c r="D4">
-        <v>407859.7338510645</v>
+        <v>407859.733851065</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -475,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>164905.5228977527</v>
+        <v>164905.522897753</v>
       </c>
       <c r="D5">
-        <v>67276.07585297468</v>
+        <v>67276.0758529747</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>156688.5381535199</v>
+        <v>156688.53815352</v>
       </c>
       <c r="D6">
-        <v>120326.8275385159</v>
+        <v>120326.827538516</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -503,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>136977.6725659556</v>
+        <v>136977.672565956</v>
       </c>
       <c r="D7">
-        <v>11946.11590257782</v>
+        <v>11946.1159025778</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -520,7 +520,7 @@
         <v>29463.7085288836</v>
       </c>
       <c r="D8">
-        <v>3428.343370872475</v>
+        <v>3428.34337087247</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -531,10 +531,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>21480.70553598624</v>
+        <v>21480.7055359862</v>
       </c>
       <c r="D9">
-        <v>3472.089102074165</v>
+        <v>3472.08910207416</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.354018078980132e+21</v>
+        <v>5.35401807906929e+21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4.085319316333854e+21</v>
+        <v>4.0853193164043e+21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.209332026553231e+21</v>
+        <v>3.20933202659467e+21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.604496777674578e+21</v>
+        <v>2.60449677768489e+21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.186881496546793e+21</v>
+        <v>2.18688149652793e+21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.898534341921169e+21</v>
+        <v>1.89853434187688e+21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.699441815047732e+21</v>
+        <v>1.69944181498222e+21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.561976146942508e+21</v>
+        <v>1.56197614685982e+21</v>
       </c>
     </row>
   </sheetData>

--- a/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
+++ b/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.35401807906929e+21</v>
+        <v>5.35401807882808e+21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4.0853193164043e+21</v>
+        <v>4.08531931621817e+21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.20933202659467e+21</v>
+        <v>3.20933202648734e+21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.60449677768489e+21</v>
+        <v>2.6044967776601e+21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.18688149652793e+21</v>
+        <v>2.18688149657958e+21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.89853434187688e+21</v>
+        <v>1.89853434199472e+21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.69944181498222e+21</v>
+        <v>1.69944181515503e+21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.56197614685982e+21</v>
+        <v>1.56197614707698e+21</v>
       </c>
     </row>
   </sheetData>

--- a/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
+++ b/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_prok_num.xlsx
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1014764.96084211</v>
+        <v>1014764.960842113</v>
       </c>
       <c r="D2">
-        <v>418589.624461565</v>
+        <v>418589.6244615653</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -447,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>642998.737414316</v>
+        <v>642998.7374143164</v>
       </c>
       <c r="D3">
-        <v>215223.638082962</v>
+        <v>215223.6380829624</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>729590.390147741</v>
+        <v>729590.3901477411</v>
       </c>
       <c r="D4">
-        <v>407859.733851065</v>
+        <v>407859.7338510645</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -475,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>164905.522897753</v>
+        <v>164905.5228977527</v>
       </c>
       <c r="D5">
-        <v>67276.0758529747</v>
+        <v>67276.07585297468</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>156688.53815352</v>
+        <v>156688.5381535199</v>
       </c>
       <c r="D6">
-        <v>120326.827538516</v>
+        <v>120326.8275385159</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -503,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>136977.672565956</v>
+        <v>136977.6725659556</v>
       </c>
       <c r="D7">
-        <v>11946.1159025778</v>
+        <v>11946.11590257782</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -520,7 +520,7 @@
         <v>29463.7085288836</v>
       </c>
       <c r="D8">
-        <v>3428.34337087247</v>
+        <v>3428.343370872475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -531,10 +531,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>21480.7055359862</v>
+        <v>21480.70553598624</v>
       </c>
       <c r="D9">
-        <v>3472.08910207416</v>
+        <v>3472.089102074165</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.35401807882808e+21</v>
+        <v>5.354018078970883e+21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4.08531931621817e+21</v>
+        <v>4.085319316331244e+21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.20933202648734e+21</v>
+        <v>3.209332026553972e+21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -599,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.6044967776601e+21</v>
+        <v>2.604496777676774e+21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.18688149657958e+21</v>
+        <v>2.186881496549405e+21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.89853434199472e+21</v>
+        <v>1.898534341923665e+21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1.69944181515503e+21</v>
+        <v>1.699441815049861e+21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.56197614707698e+21</v>
+        <v>1.561976146944194e+21</v>
       </c>
     </row>
   </sheetData>
